--- a/rfm_categorizacao_padrao.xlsx
+++ b/rfm_categorizacao_padrao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6f29faf5b640946/Área de Trabalho/UpData/rfm_ecommerce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{AEA875C2-C5BA-42AC-899E-ECB15F325DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8266B00B-7499-4CE8-AB3C-DA18AE1766DA}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{AEA875C2-C5BA-42AC-899E-ECB15F325DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A259F966-EF1E-4A17-973A-ABB91011BC24}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BD0EB3F7-1B60-4492-A5C7-D183E8E3BF54}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Recem Ativos</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,9 +165,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -173,8 +173,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,13 +523,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="16"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -542,7 +544,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +562,7 @@
       <c r="C1" s="5">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -574,7 +576,7 @@
       <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -588,7 +590,7 @@
       <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -602,7 +604,7 @@
       <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
@@ -619,7 +621,7 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -644,7 +646,7 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -669,7 +671,7 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -751,46 +753,46 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>2</v>
-      </c>
-      <c r="B17" s="16">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="A17" s="15">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="A18" s="15">
+        <v>2</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17">
-        <v>1</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>2</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="A20" s="12">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
         <v>4</v>
       </c>
     </row>
@@ -827,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">

--- a/rfm_categorizacao_padrao.xlsx
+++ b/rfm_categorizacao_padrao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ribeiro\Desktop\rfm_ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6563930F-F098-4E1C-B1E6-4311DA074B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70CE4D6-CC6F-4A72-A552-8F1692A96E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD0EB3F7-1B60-4492-A5C7-D183E8E3BF54}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Recem Ativos</t>
   </si>
   <si>
     <t>Clientes Leais</t>
-  </si>
-  <si>
-    <t>Clientes Potenciais</t>
   </si>
   <si>
     <t>clientes inativos</t>
@@ -65,10 +62,10 @@
     <t>??</t>
   </si>
   <si>
-    <t>Cliene Leal de Alto Valor</t>
+    <t>Clientes em Risco de Alto Valor</t>
   </si>
   <si>
-    <t>Clientes em Risco de Alto Valor</t>
+    <t>Clientes Ativos</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +140,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -156,12 +147,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -192,9 +177,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66E83FF-8218-4F1B-8D76-E04CC27EBA8C}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -577,9 +560,6 @@
       </c>
       <c r="C3" s="4">
         <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -593,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -607,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
@@ -621,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -635,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -659,8 +639,8 @@
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>5</v>
+      <c r="F9" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,31 +655,31 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13">
-        <v>4</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>10</v>
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -725,24 +705,24 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13">
-        <v>4</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12">
         <v>4</v>
       </c>
     </row>
@@ -823,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,24 +843,24 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>2</v>
-      </c>
-      <c r="B27" s="13">
-        <v>3</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>2</v>
-      </c>
-      <c r="B28" s="13">
-        <v>3</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
         <v>4</v>
       </c>
     </row>
@@ -907,68 +887,68 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
-        <v>2</v>
-      </c>
-      <c r="B31" s="13">
-        <v>4</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="A31" s="12">
+        <v>2</v>
+      </c>
+      <c r="B31" s="12">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>2</v>
-      </c>
-      <c r="B32" s="13">
-        <v>4</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="A32" s="12">
+        <v>2</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
-        <v>3</v>
-      </c>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <v>3</v>
-      </c>
-      <c r="B34" s="15">
-        <v>1</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
-        <v>3</v>
-      </c>
-      <c r="B35" s="15">
-        <v>1</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
-        <v>3</v>
-      </c>
-      <c r="B36" s="15">
-        <v>1</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1270,13 +1250,13 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
-        <v>4</v>
-      </c>
-      <c r="B64" s="12">
-        <v>4</v>
-      </c>
-      <c r="C64" s="12">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
         <v>4</v>
       </c>
     </row>
